--- a/strategies/long_straddle/reports/fake_report.xlsx
+++ b/strategies/long_straddle/reports/fake_report.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>Stock symbol</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -258,11 +261,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -526,153 +532,159 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="7.25"/>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
-    <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="7.25"/>
+    <col customWidth="1" min="4" max="4" width="8.13"/>
+    <col customWidth="1" min="5" max="5" width="9.0"/>
+    <col customWidth="1" min="12" max="12" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="J1" s="6"/>
       <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
       <c r="V1" s="11"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="O2" s="4"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>14</v>
+      <c r="P3" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="Q3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>20</v>
       </c>
+      <c r="W3" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="14">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R1:W2"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/strategies/long_straddle/reports/fake_report.xlsx
+++ b/strategies/long_straddle/reports/fake_report.xlsx
@@ -1,109 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>Stock symbol</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>lot size</t>
-  </si>
-  <si>
-    <t>lot quantity</t>
-  </si>
-  <si>
-    <t>entry</t>
-  </si>
-  <si>
-    <t>Strike price</t>
-  </si>
-  <si>
-    <t>exit</t>
-  </si>
-  <si>
-    <t>Profit calculation</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Bank nifty point</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>CE + PE</t>
-  </si>
-  <si>
-    <t>Tot buying price</t>
-  </si>
-  <si>
-    <t>Tot selling  price</t>
-  </si>
-  <si>
-    <t>per unit basic profit</t>
-  </si>
-  <si>
-    <t>total basic profit</t>
-  </si>
-  <si>
-    <t>all charges</t>
-  </si>
-  <si>
-    <t>Net profit</t>
-  </si>
-  <si>
-    <t>Net profit %age</t>
-  </si>
-  <si>
-    <t>exit reason</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font/>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -139,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -257,75 +187,164 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,169 +542,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="7.25"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="12" max="12" width="9.13"/>
+    <col width="7.25" customWidth="1" style="24" min="3" max="3"/>
+    <col width="8.130000000000001" customWidth="1" style="24" min="4" max="4"/>
+    <col width="9" customWidth="1" style="24" min="5" max="5"/>
+    <col width="9.130000000000001" customWidth="1" style="24" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="12"/>
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>Stock symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="25" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t>lot size</t>
+        </is>
+      </c>
+      <c r="D1" s="25" t="inlineStr">
+        <is>
+          <t>lot quantity</t>
+        </is>
+      </c>
+      <c r="E1" s="20" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="F1" s="26" t="n"/>
+      <c r="G1" s="26" t="n"/>
+      <c r="H1" s="26" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="28" t="inlineStr">
+        <is>
+          <t>Strike price</t>
+        </is>
+      </c>
+      <c r="L1" s="21" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="M1" s="26" t="n"/>
+      <c r="N1" s="26" t="n"/>
+      <c r="O1" s="26" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="9" t="n"/>
+      <c r="R1" s="23" t="inlineStr">
+        <is>
+          <t>Profit calculation</t>
+        </is>
+      </c>
+      <c r="S1" s="29" t="n"/>
+      <c r="T1" s="29" t="n"/>
+      <c r="U1" s="29" t="n"/>
+      <c r="V1" s="29" t="n"/>
+      <c r="W1" s="30" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="31" t="n"/>
+      <c r="B2" s="31" t="n"/>
+      <c r="C2" s="31" t="n"/>
+      <c r="D2" s="31" t="n"/>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>Bank nifty point</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="31" t="n"/>
+      <c r="L2" s="21" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="M2" s="21" t="inlineStr">
+        <is>
+          <t>Bank nifty point</t>
+        </is>
+      </c>
+      <c r="N2" s="21" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="O2" s="26" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="9" t="n"/>
+      <c r="R2" s="32" t="n"/>
+      <c r="S2" s="33" t="n"/>
+      <c r="T2" s="33" t="n"/>
+      <c r="U2" s="33" t="n"/>
+      <c r="V2" s="33" t="n"/>
+      <c r="W2" s="34" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>21</v>
+      <c r="A3" s="35" t="n"/>
+      <c r="B3" s="35" t="n"/>
+      <c r="C3" s="35" t="n"/>
+      <c r="D3" s="35" t="n"/>
+      <c r="E3" s="35" t="n"/>
+      <c r="F3" s="35" t="n"/>
+      <c r="G3" s="20" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="H3" s="20" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I3" s="20" t="inlineStr">
+        <is>
+          <t>CE + PE</t>
+        </is>
+      </c>
+      <c r="J3" s="20" t="inlineStr">
+        <is>
+          <t>Tot buying price</t>
+        </is>
+      </c>
+      <c r="K3" s="35" t="n"/>
+      <c r="L3" s="35" t="n"/>
+      <c r="M3" s="35" t="n"/>
+      <c r="N3" s="21" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O3" s="21" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="P3" s="21" t="inlineStr">
+        <is>
+          <t>CE + PE</t>
+        </is>
+      </c>
+      <c r="Q3" s="21" t="inlineStr">
+        <is>
+          <t>Tot selling  price</t>
+        </is>
+      </c>
+      <c r="R3" s="23" t="inlineStr">
+        <is>
+          <t>per unit basic profit</t>
+        </is>
+      </c>
+      <c r="S3" s="23" t="inlineStr">
+        <is>
+          <t>total basic profit</t>
+        </is>
+      </c>
+      <c r="T3" s="23" t="inlineStr">
+        <is>
+          <t>all charges</t>
+        </is>
+      </c>
+      <c r="U3" s="23" t="inlineStr">
+        <is>
+          <t>Net profit</t>
+        </is>
+      </c>
+      <c r="V3" s="23" t="inlineStr">
+        <is>
+          <t>Net profit %age</t>
+        </is>
+      </c>
+      <c r="W3" s="23" t="inlineStr">
+        <is>
+          <t>exit reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>NIFTY 50</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>13:37:00</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>25133.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>92.25</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2306.25</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>25100</v>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>13:37:04</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>25134.6</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>2275</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>-31.25</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>96.677004</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>-127.927004</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>-5.546970363143632</v>
+      </c>
+      <c r="W4" s="0" t="inlineStr">
+        <is>
+          <t>MAX_LOSS_WHILE_LOOKING_FOR_INITIAL_SL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NIFTY 50</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:40:05</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>25128.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2242.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25100</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>25137.55</v>
+      </c>
+      <c r="N5" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>92.19999999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2305</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.499999999999986</v>
+      </c>
+      <c r="S5" t="n">
+        <v>62.49999999999955</v>
+      </c>
+      <c r="T5" t="n">
+        <v>97.088994</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-34.58899400000045</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-1.54243005574138</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_WHILE_LOOKING_FOR_INITIAL_SL</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:W2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K1:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R1:W2"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/strategies/long_straddle/reports/fake_report.xlsx
+++ b/strategies/long_straddle/reports/fake_report.xlsx
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,81 +830,324 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>NIFTY 50</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>2024-08-29</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>13:40:05</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>25128.7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>64.45</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="0" t="n">
         <v>25.25</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="0" t="n">
         <v>89.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>2242.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="0" t="n">
         <v>25100</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t>14:00:00</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="0" t="n">
         <v>25137.55</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="0" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="0" t="n">
         <v>25.6</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="0" t="n">
         <v>92.19999999999999</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="0" t="n">
         <v>2305</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="0" t="n">
         <v>2.499999999999986</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="0" t="n">
         <v>62.49999999999955</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="0" t="n">
         <v>97.088994</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="0" t="n">
         <v>-34.58899400000045</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="0" t="n">
         <v>-1.54243005574138</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_WHILE_LOOKING_FOR_INITIAL_SL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>09:20:43</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>51401.8</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>630.15</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1506.35</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>22595.25</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>51400</v>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>09:20:46</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>51394</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>870.2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>633.4</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1503.6</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>22554</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>-41.25</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>91.82704799999999</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>-133.077048</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>-0.5889602814750887</v>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>MAX_LOSS_WHILE_LOOKING_FOR_INITIAL_SL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>09:24:08</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>51398.3</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>879.7</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>626.8</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1506.5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>22597.5</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>51400</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>09:24:10</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>51402.1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>876.4</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>626.8</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1503.2</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>22548</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>-3.300000000000182</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>-49.50000000000364</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>91.76662279999996</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>-141.2666228000036</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>-0.6251427051665166</v>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>MAX_LOSS_WHILE_LOOKING_FOR_INITIAL_SL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:35:01</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>51333.35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>919</v>
+      </c>
+      <c r="H8" t="n">
+        <v>593.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1512.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22686.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51300</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>51392.55</v>
+      </c>
+      <c r="N8" t="n">
+        <v>946.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>574.95</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1521</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>22815</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.549999999999955</v>
+      </c>
+      <c r="S8" t="n">
+        <v>128.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>93.06851119999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>35.18148880000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1550750495333179</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>TIME_ELAPSED_WHILE_LOOKING_FOR_INITIAL_SL</t>
         </is>
